--- a/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_1/Expr_1.xlsx
+++ b/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_1/Expr_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6B26A6-D3D3-614A-B62E-D4FF548284AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404C2C77-188F-0C43-A96A-A521C3007F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="36880" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -745,7 +745,7 @@
         <v>31</v>
       </c>
       <c r="S2" s="12">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="T2" s="13" t="s">
         <v>10</v>
